--- a/Discharge/RatingCurves/Stn1.xlsx
+++ b/Discharge/RatingCurves/Stn1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/RatingCurves/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{AD22128E-942E-410F-A598-74374D665C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110B388B-10DD-9743-90BD-8D4159B3FF8F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D6EE7-CEBF-5B4F-82E0-FB509B900D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18080" yWindow="500" windowWidth="31420" windowHeight="20260" xr2:uid="{07CF2191-7EB6-48FB-98A6-089F23ACF832}"/>
+    <workbookView xWindow="18540" yWindow="500" windowWidth="20900" windowHeight="20260" xr2:uid="{07CF2191-7EB6-48FB-98A6-089F23ACF832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Station 1</t>
   </si>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,12 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -158,6 +164,8 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,7 +260,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$23</c:f>
+              <c:f>Sheet1!$D$26:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -294,7 +302,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$23</c:f>
+              <c:f>Sheet1!$E$26:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -683,7 +691,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$32:$D$54</c:f>
+              <c:f>Sheet1!$D$53:$D$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -752,7 +760,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$32:$E$54</c:f>
+              <c:f>Sheet1!$E$53:$E$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1153,7 +1161,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$32:$G$66</c:f>
+              <c:f>Sheet1!$G$53:$G$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1252,7 +1260,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$32:$H$66</c:f>
+              <c:f>Sheet1!$H$53:$H$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1620,7 +1628,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$62:$A$133</c:f>
+              <c:f>Sheet1!$A$83:$A$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -1845,7 +1853,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$62:$B$133</c:f>
+              <c:f>Sheet1!$B$83:$B$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -1991,7 +1999,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$62:$A$133</c:f>
+              <c:f>Sheet1!$A$83:$A$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -2216,7 +2224,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$62:$C$133</c:f>
+              <c:f>Sheet1!$C$83:$C$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -2559,6 +2567,473 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$53:$J$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.1457996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1568737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14314830000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1625434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1614931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1393549</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1381415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17391319999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15928030000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14510619999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14192460000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6763747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32541490000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32366600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19081529999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16417909999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10606110000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9830589999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1055002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16438910000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18866859999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$53:$K$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1.97E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.104E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.565E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6959999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8269999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0419999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3180000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6542999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3446E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0229999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6430000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19495999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4860000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2427000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.222E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.1999999999999972E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1209999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6420000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E549-0343-8E9B-9FB12E9D2219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1483243759"/>
+        <c:axId val="1482837343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1483243759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1482837343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1482837343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483243759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2719,6 +3194,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4268,6 +4783,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4789,13 +5820,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>429286</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>66807</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4823,16 +5854,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>84366</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281214</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>20867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>353784</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9073</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390070</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>145145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4859,16 +5890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>197758</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104322</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>7258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>648607</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>183244</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4897,13 +5928,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>99786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>566965</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>47172</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4929,11 +5960,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE59554-868C-25D8-113E-B951209E27C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5233,10 +6296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF5C914-8BD5-4CA5-BE79-A5668D7FBF75}">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5244,2046 +6307,2443 @@
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>43685</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E4">
+        <v>5.3756560000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>43684</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E5">
+        <v>5.3134260000000004E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>43682</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="E6">
+        <v>1.6421176199999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>43679</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="E7">
+        <v>7.5004930000000004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>43678</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E8">
+        <v>8.4630260000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>43668</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E9">
+        <v>3.3975598799999993E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>43686</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="E10">
+        <v>7.9036672000000023E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>43690</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E11">
+        <v>1.2605186880000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>43656</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="E12">
+        <v>3.00818804E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>43657</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E13">
+        <v>1.4434362799999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="E14">
+        <v>1.5162255679999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>43670</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E15">
+        <v>0.1407622788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>44356</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B24" s="2">
         <v>0.4770833333333333</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C24" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E3">
+      <c r="E24">
         <v>4.4454999999999998E-3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>44357</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B25" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C25" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E4">
+      <c r="E25">
         <v>7.1500000000000003E-4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>44358</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B26" s="2">
         <v>0.42430555555555555</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C26" s="2">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D26" s="4">
         <v>0.1457996</v>
       </c>
-      <c r="E5">
+      <c r="E26">
         <v>1.97E-3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>44361</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B27" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C27" s="2">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D27" s="4">
         <v>0.1568737</v>
       </c>
-      <c r="E6">
+      <c r="E27">
         <v>5.104E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>44365</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B28" s="2">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C28" s="2">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D28" s="4">
         <v>0.14314830000000001</v>
       </c>
-      <c r="E7">
+      <c r="E28">
         <v>3.5645E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>44372</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B29" s="2">
         <v>0.44513888888888892</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C29" s="2">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D29" s="4">
         <v>0.1625434</v>
       </c>
-      <c r="E8">
+      <c r="E29">
         <v>5.6959999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>44375</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B30" s="2">
         <v>0.47569444444444442</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C30" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D30" s="4">
         <v>0.15101029999999999</v>
       </c>
-      <c r="E9">
+      <c r="E30">
         <v>4.8265000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>44382</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B31" s="2">
         <v>0.4375</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C31" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D31" s="4">
         <v>0.1393549</v>
       </c>
-      <c r="E10">
+      <c r="E31">
         <v>9.0424000000000008E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>44386</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B32" s="2">
         <v>0.44097222222222227</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C32" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D32" s="4">
         <f>(0.1345317 + 0.1417513)/2</f>
         <v>0.1381415</v>
       </c>
-      <c r="E11">
+      <c r="E32">
         <v>1.3180314E-2</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>44389</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B33" s="2">
         <v>0.56597222222222221</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C33" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D33" s="4">
         <v>0.17391319999999999</v>
       </c>
-      <c r="E12">
+      <c r="E33">
         <v>1.6543019999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>44390</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B34" s="2">
         <v>0.4375</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C34" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D34" s="4">
         <v>0.15928030000000001</v>
       </c>
-      <c r="E13">
+      <c r="E34">
         <v>1.3445500000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>44391</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B35" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C35" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D35" s="4">
         <v>0.14510619999999999</v>
       </c>
-      <c r="E14">
+      <c r="E35">
         <v>9.0229999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>44393</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B36" s="2">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C36" s="2">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E15">
+      <c r="E36">
         <v>4.6430000000000004E-3</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>44396</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B37" s="2">
         <v>0.47222222222222227</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C37" s="2">
         <v>0.46875</v>
       </c>
-      <c r="E16">
+      <c r="E37">
         <v>0.19495999999999999</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>44397</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B38" s="2">
         <v>0.56458333333333333</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C38" s="2">
         <v>0.5625</v>
       </c>
-      <c r="E17">
+      <c r="E38">
         <v>0.10002</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>44400</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B39" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C39" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E18">
+      <c r="E39">
         <v>6.4860000000000001E-2</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>44403</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B40" s="2">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C40" s="2">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E19">
+      <c r="E40">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>44404</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B41" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C41" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E20">
+      <c r="E41">
         <v>1.2427000000000001E-2</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>44489</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C43" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D43" s="4">
         <v>0.1483285</v>
       </c>
-      <c r="E22">
+      <c r="E43">
         <v>1.222E-3</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F43" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
         <v>44874</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="H29" s="6" t="s">
+      <c r="F50" s="6"/>
+      <c r="H50" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
         <v>44356</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B51" s="8">
         <v>0.4770833333333333</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C51" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6">
         <v>4.4460000000000003E-3</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6">
         <v>4.4460000000000003E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="K51" s="6">
+        <v>4.4460000000000003E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
         <v>44357</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B52" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C52" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
         <v>7.1500000000000003E-4</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6">
+      <c r="G52" s="6"/>
+      <c r="H52" s="6">
         <v>7.1500000000000003E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="K52" s="6">
+        <v>7.1500000000000003E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
         <v>44358</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B53" s="8">
         <v>0.42430555555555555</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C53" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D53" s="9">
         <v>0.1457996</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E53" s="6">
         <v>1.97E-3</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G53" s="9">
         <v>0.1457996</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H53" s="6">
         <v>1.97E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="J53" s="9">
+        <v>0.1457996</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1.97E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
         <v>44361</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B54" s="8">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C54" s="8">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D54" s="9">
         <v>0.1568737</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E54" s="6">
         <v>5.104E-3</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="9">
+      <c r="F54" s="6"/>
+      <c r="G54" s="9">
         <v>0.1568737</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H54" s="6">
         <v>5.104E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="J54" s="9">
+        <v>0.1568737</v>
+      </c>
+      <c r="K54" s="6">
+        <v>5.104E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
         <v>44365</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B55" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C55" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D55" s="9">
         <v>0.14314830000000001</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E55" s="6">
         <v>3.565E-3</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="9">
+      <c r="F55" s="6"/>
+      <c r="G55" s="9">
         <v>0.14314830000000001</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H55" s="6">
         <v>3.565E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="J55" s="9">
+        <v>0.14314830000000001</v>
+      </c>
+      <c r="K55" s="6">
+        <v>3.565E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
         <v>44372</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B56" s="8">
         <v>0.44513888888888892</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C56" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D56" s="9">
         <v>0.1625434</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E56" s="6">
         <v>5.6959999999999997E-3</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="9">
+      <c r="F56" s="6"/>
+      <c r="G56" s="9">
         <v>0.1625434</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H56" s="6">
         <v>5.6959999999999997E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="J56" s="9">
+        <v>0.1625434</v>
+      </c>
+      <c r="K56" s="6">
+        <v>5.6959999999999997E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
         <v>44375</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B57" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C57" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D57" s="9">
         <v>0.1614931</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E57" s="6">
         <v>4.8269999999999997E-3</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="9">
+      <c r="F57" s="6"/>
+      <c r="G57" s="9">
         <v>0.1614931</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H57" s="6">
         <v>4.8269999999999997E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="J57" s="9">
+        <v>0.1614931</v>
+      </c>
+      <c r="K57" s="6">
+        <v>4.8269999999999997E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
         <v>44382</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B58" s="8">
         <v>0.4375</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C58" s="8">
         <v>0.4375</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D58" s="9">
         <v>0.1393549</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E58" s="6">
         <v>9.0419999999999997E-3</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="9">
+      <c r="F58" s="6"/>
+      <c r="G58" s="9">
         <v>0.1393549</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H58" s="6">
         <v>9.0419999999999997E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="J58" s="9">
+        <v>0.1393549</v>
+      </c>
+      <c r="K58" s="6">
+        <v>9.0419999999999997E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
         <v>44386</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B59" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C59" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D59" s="4">
         <v>0.1381415</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E59" s="6">
         <v>1.3180000000000001E-2</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F59" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G59" s="4">
         <v>0.1381415</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H59" s="6">
         <v>1.3180000000000001E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="J59" s="4">
+        <v>0.1381415</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1.3180000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
         <v>44389</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B60" s="8">
         <v>0.56597222222222221</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C60" s="8">
         <v>0.5625</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D60" s="9">
         <v>0.17391319999999999</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E60" s="6">
         <v>1.6542999999999999E-2</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="9">
+      <c r="F60" s="6"/>
+      <c r="G60" s="9">
         <v>0.17391319999999999</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H60" s="6">
         <v>1.6542999999999999E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="J60" s="9">
+        <v>0.17391319999999999</v>
+      </c>
+      <c r="K60" s="6">
+        <v>1.6542999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
         <v>44390</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B61" s="8">
         <v>0.4375</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C61" s="8">
         <v>0.4375</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D61" s="9">
         <v>0.15928030000000001</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E61" s="6">
         <v>1.3446E-2</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="9">
+      <c r="F61" s="6"/>
+      <c r="G61" s="9">
         <v>0.15928030000000001</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H61" s="6">
         <v>1.3446E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="J61" s="9">
+        <v>0.15928030000000001</v>
+      </c>
+      <c r="K61" s="6">
+        <v>1.3446E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
         <v>44391</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B62" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C62" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D62" s="9">
         <v>0.14510619999999999</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E62" s="6">
         <v>9.0229999999999998E-3</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="9">
+      <c r="F62" s="6"/>
+      <c r="G62" s="9">
         <v>0.14510619999999999</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H62" s="6">
         <v>9.0229999999999998E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="J62" s="9">
+        <v>0.14510619999999999</v>
+      </c>
+      <c r="K62" s="6">
+        <v>9.0229999999999998E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
         <v>44393</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B63" s="8">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C63" s="8">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D63" s="9">
         <v>0.14192460000000001</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E63" s="6">
         <v>4.6430000000000004E-3</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F63" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G63" s="9">
         <v>0.14192460000000001</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H63" s="6">
         <v>4.6430000000000004E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="J63" s="9">
+        <v>0.14192460000000001</v>
+      </c>
+      <c r="K63" s="6">
+        <v>4.6430000000000004E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
         <v>44396</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B64" s="8">
         <v>0.47222222222222227</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C64" s="8">
         <v>0.46875</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="6">
+      <c r="D64" s="9"/>
+      <c r="E64" s="6">
         <v>0.19495999999999999</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G64" s="9">
         <v>0.6763747</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H64" s="6">
         <v>0.19495999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="J64" s="9">
+        <v>0.6763747</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0.19495999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
         <v>44397</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B65" s="8">
         <v>0.56458333333333333</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C65" s="8">
         <v>0.5625</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D65" s="9">
         <v>0.32541490000000001</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E65" s="6">
         <v>0.10002</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G65" s="9">
         <v>0.32541490000000001</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H65" s="6">
         <v>0.10002</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="J65" s="9">
+        <v>0.32541490000000001</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0.10002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
         <v>44400</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B66" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C66" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D66" s="9">
         <v>0.32366600000000001</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E66" s="6">
         <v>6.4860000000000001E-2</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G66" s="9">
         <v>0.32366600000000001</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H66" s="6">
         <v>6.4860000000000001E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="J66" s="9">
+        <v>0.32366600000000001</v>
+      </c>
+      <c r="K66" s="6">
+        <v>6.4860000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
         <v>44403</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B67" s="8">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C67" s="8">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D67" s="9">
         <v>0.19081529999999999</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E67" s="6">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G67" s="9">
         <v>0.19081529999999999</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H67" s="6">
         <v>9.2999999999999992E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="J67" s="9">
+        <v>0.19081529999999999</v>
+      </c>
+      <c r="K67" s="6">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
         <v>44404</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B68" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C68" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D68" s="9">
         <v>0.16417909999999999</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E68" s="6">
         <v>1.2427000000000001E-2</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F68" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G68" s="9">
         <v>0.16417909999999999</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H68" s="6">
         <v>1.2427000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="J68" s="9">
+        <v>0.16417909999999999</v>
+      </c>
+      <c r="K68" s="6">
+        <v>1.2427000000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
         <v>44489</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B70" s="8">
         <v>0.46875</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C70" s="8">
         <v>0.46875</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D70" s="9">
         <v>0.1483285</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E70" s="6">
         <v>1.222E-3</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="9">
+      <c r="F70" s="6"/>
+      <c r="G70" s="9">
         <v>0.1483285</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H70" s="6">
         <v>1.222E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="I70" s="11"/>
+      <c r="J70" s="11">
+        <v>0.10606110000000001</v>
+      </c>
+      <c r="K70" s="6">
+        <v>1.222E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>44714</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B72" s="2">
         <v>0.5</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C72" s="2">
         <v>0.5</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D72" s="9">
         <v>0.14526929999999999</v>
       </c>
-      <c r="E51">
+      <c r="E72">
         <v>6.1999999999999972E-3</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G72" s="9">
         <v>0.14526929999999999</v>
       </c>
-      <c r="H51">
+      <c r="H72">
         <v>6.1999999999999972E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="I72" s="11"/>
+      <c r="J72" s="11">
+        <v>9.9830589999999997E-2</v>
+      </c>
+      <c r="K72">
+        <v>6.1999999999999972E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>44719</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B73" s="2">
         <v>0.4465277777777778</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C73" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D73" s="10">
         <v>0.15093899999999999</v>
       </c>
-      <c r="E52">
+      <c r="E73">
         <v>1.6000000000000007E-3</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G73" s="10">
         <v>0.15093899999999999</v>
       </c>
-      <c r="H52">
+      <c r="H73">
         <v>1.6000000000000007E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="I73" s="11"/>
+      <c r="J73" s="11">
+        <v>0.1055002</v>
+      </c>
+      <c r="K73">
+        <v>1.6000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>44764</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B74" s="2">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C74" s="2">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D74" s="9">
         <v>0.20982780000000001</v>
       </c>
-      <c r="E53">
+      <c r="E74">
         <v>3.1209999999999995E-2</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G74" s="9">
         <v>0.20982780000000001</v>
       </c>
-      <c r="H53">
+      <c r="H74">
         <v>3.1209999999999995E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="I74" s="11"/>
+      <c r="J74" s="11">
+        <v>0.16438910000000001</v>
+      </c>
+      <c r="K74">
+        <v>3.1209999999999995E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>44769</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B75" s="2">
         <v>0.38680555555555557</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C75" s="2">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D75" s="9">
         <v>0.23410729999999999</v>
       </c>
-      <c r="E54">
+      <c r="E75">
         <v>1.6420000000000011E-2</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G75" s="9">
         <v>0.23410729999999999</v>
       </c>
-      <c r="H54">
+      <c r="H75">
         <v>1.6420000000000011E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="D55" s="9"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="D56" s="9"/>
-      <c r="G56" s="9">
+      <c r="I75" s="11"/>
+      <c r="J75" s="11">
+        <v>0.18866859999999999</v>
+      </c>
+      <c r="K75">
+        <v>1.6420000000000011E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D77" s="9"/>
+      <c r="G77" s="9">
         <v>0.1</v>
       </c>
-      <c r="H56">
+      <c r="H77">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="D57" s="9"/>
-      <c r="G57" s="9">
+      <c r="J77" s="9">
         <v>0.1</v>
       </c>
-      <c r="H57">
+      <c r="K77">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="D58" s="9"/>
-      <c r="G58" s="9">
+    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D78" s="9"/>
+      <c r="G78" s="9">
         <v>0.1</v>
       </c>
-      <c r="H58">
+      <c r="H78">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="D59" s="9"/>
-      <c r="G59" s="9">
+      <c r="J78" s="9">
         <v>0.1</v>
       </c>
-      <c r="H59">
+      <c r="K78">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="D60" s="9"/>
-      <c r="G60" s="9">
+    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D79" s="9"/>
+      <c r="G79" s="9">
         <v>0.1</v>
       </c>
-      <c r="H60">
+      <c r="H79">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="D61" s="9"/>
-      <c r="G61" s="9">
+      <c r="J79" s="9">
         <v>0.1</v>
       </c>
-      <c r="H61">
+      <c r="K79">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62">
+    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D80" s="9"/>
+      <c r="G80" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H80">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J80" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K80">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D81" s="9"/>
+      <c r="G81" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H81">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J81" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K81">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D82" s="9"/>
+      <c r="G82" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H82">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J82" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K82">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B62">
-        <f>2.0906*A62^2 - 0.5608*A62 + 0.0439</f>
+      <c r="B83">
+        <f>2.0906*A83^2 - 0.5608*A83 + 0.0439</f>
         <v>6.363760000000003E-3</v>
       </c>
-      <c r="D62" s="9">
-        <f>B62-C62</f>
+      <c r="D83" s="9">
+        <f>B83-C83</f>
         <v>6.363760000000003E-3</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G83" s="9">
         <v>0.1</v>
       </c>
-      <c r="H62">
+      <c r="H83">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f>A62+0.01</f>
+      <c r="J83" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K83">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f>A83+0.01</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="B63">
-        <f t="shared" ref="B63:B133" si="0">2.0906*A63^2 - 0.5608*A63 + 0.0439</f>
+      <c r="B84">
+        <f t="shared" ref="B84:B117" si="0">2.0906*A84^2 - 0.5608*A84 + 0.0439</f>
         <v>6.8185000000000121E-3</v>
       </c>
-      <c r="D63" s="9">
-        <f t="shared" ref="D63:D133" si="1">B63-C63</f>
+      <c r="D84" s="9">
+        <f t="shared" ref="D84:D154" si="1">B84-C84</f>
         <v>6.8185000000000121E-3</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G84" s="9">
         <v>0.1</v>
       </c>
-      <c r="H63">
+      <c r="H84">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J63" s="10">
-        <v>0.1195316</v>
-      </c>
-      <c r="K63">
-        <f>0.126*J63^2+0.255*J63-0.0314</f>
-        <v>8.8082122821856595E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" ref="A64:A133" si="2">A63+0.01</f>
+      <c r="J84" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K84">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" ref="A85:A154" si="2">A84+0.01</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="B64">
+      <c r="B85">
         <f t="shared" si="0"/>
         <v>7.6913600000000013E-3</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D85" s="9">
         <f t="shared" si="1"/>
         <v>7.6913600000000013E-3</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G85" s="9">
         <v>0.1</v>
       </c>
-      <c r="H64">
+      <c r="H85">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="J85" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K85">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86">
         <f t="shared" si="2"/>
         <v>0.17000000000000004</v>
       </c>
-      <c r="B65">
+      <c r="B86">
         <f t="shared" si="0"/>
         <v>8.9823400000000053E-3</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D86" s="9">
         <f t="shared" si="1"/>
         <v>8.9823400000000053E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87">
         <f t="shared" si="2"/>
         <v>0.18000000000000005</v>
       </c>
-      <c r="B66">
+      <c r="B87">
         <f t="shared" si="0"/>
         <v>1.0691440000000017E-2</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D87" s="9">
         <f t="shared" si="1"/>
         <v>1.0691440000000017E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88">
         <f t="shared" si="2"/>
         <v>0.19000000000000006</v>
       </c>
-      <c r="B67">
+      <c r="B88">
         <f t="shared" si="0"/>
         <v>1.2818660000000016E-2</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D88" s="9">
         <f t="shared" si="1"/>
         <v>1.2818660000000016E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89">
         <f t="shared" si="2"/>
         <v>0.20000000000000007</v>
       </c>
-      <c r="B68">
+      <c r="B89">
         <f t="shared" si="0"/>
         <v>1.5364000000000023E-2</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D89" s="9">
         <f t="shared" si="1"/>
         <v>1.5364000000000023E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90">
         <f t="shared" si="2"/>
         <v>0.21000000000000008</v>
       </c>
-      <c r="B69">
+      <c r="B90">
         <f t="shared" si="0"/>
         <v>1.8327460000000025E-2</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D90" s="9">
         <f t="shared" si="1"/>
         <v>1.8327460000000025E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91">
         <f t="shared" si="2"/>
         <v>0.22000000000000008</v>
       </c>
-      <c r="B70">
+      <c r="B91">
         <f t="shared" si="0"/>
         <v>2.1709040000000034E-2</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D91" s="9">
         <f t="shared" si="1"/>
         <v>2.1709040000000034E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92">
         <f t="shared" si="2"/>
         <v>0.23000000000000009</v>
       </c>
-      <c r="B71">
+      <c r="B92">
         <f t="shared" si="0"/>
         <v>2.5508740000000037E-2</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D92" s="9">
         <f t="shared" si="1"/>
         <v>2.5508740000000037E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93">
         <f t="shared" si="2"/>
         <v>0.2400000000000001</v>
       </c>
-      <c r="B72">
+      <c r="B93">
         <f t="shared" si="0"/>
         <v>2.9726560000000048E-2</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D93" s="9">
         <f t="shared" si="1"/>
         <v>2.9726560000000048E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94">
         <f t="shared" si="2"/>
         <v>0.25000000000000011</v>
       </c>
-      <c r="B73">
+      <c r="B94">
         <f t="shared" si="0"/>
         <v>3.4362500000000053E-2</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D94" s="9">
         <f t="shared" si="1"/>
         <v>3.4362500000000053E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95">
         <f t="shared" si="2"/>
         <v>0.26000000000000012</v>
       </c>
-      <c r="B74">
+      <c r="B95">
         <f t="shared" si="0"/>
         <v>3.941656000000008E-2</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D95" s="9">
         <f t="shared" si="1"/>
         <v>3.941656000000008E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="96" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96">
         <f t="shared" si="2"/>
         <v>0.27000000000000013</v>
       </c>
-      <c r="B75">
+      <c r="B96">
         <f t="shared" si="0"/>
         <v>4.4888740000000101E-2</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D96" s="9">
         <f t="shared" si="1"/>
         <v>4.4888740000000101E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f>A75+0.001</f>
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f>A96+0.001</f>
         <v>0.27100000000000013</v>
       </c>
-      <c r="B76">
+      <c r="B97">
         <f t="shared" si="0"/>
         <v>4.545895460000008E-2</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D97" s="9">
         <f t="shared" si="1"/>
         <v>4.545895460000008E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <f t="shared" ref="A77:A85" si="3">A76+0.001</f>
+    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" ref="A98:A102" si="3">A97+0.001</f>
         <v>0.27200000000000013</v>
       </c>
-      <c r="B77">
+      <c r="B98">
         <f t="shared" si="0"/>
         <v>4.6033350400000096E-2</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D98" s="9">
         <f t="shared" si="1"/>
         <v>4.6033350400000096E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99">
         <f t="shared" si="3"/>
         <v>0.27300000000000013</v>
       </c>
-      <c r="B78">
+      <c r="B99">
         <f t="shared" si="0"/>
         <v>4.6611927400000065E-2</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D99" s="9">
         <f t="shared" si="1"/>
         <v>4.6611927400000065E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100">
         <f t="shared" si="3"/>
         <v>0.27400000000000013</v>
       </c>
-      <c r="B79">
+      <c r="B100">
         <f t="shared" si="0"/>
         <v>4.7194685600000098E-2</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D100" s="9">
         <f t="shared" si="1"/>
         <v>4.7194685600000098E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101">
         <f t="shared" si="3"/>
         <v>0.27500000000000013</v>
       </c>
-      <c r="B80">
+      <c r="B101">
         <f t="shared" si="0"/>
         <v>4.7781625000000084E-2</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D101" s="9">
         <f t="shared" si="1"/>
         <v>4.7781625000000084E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102">
         <f t="shared" si="3"/>
         <v>0.27600000000000013</v>
       </c>
-      <c r="B81">
+      <c r="B102">
         <f t="shared" si="0"/>
         <v>4.8372745600000079E-2</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D102" s="9">
         <f t="shared" si="1"/>
         <v>4.8372745600000079E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <f>A81+0.0001</f>
+    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f>A102+0.0001</f>
         <v>0.27610000000000012</v>
       </c>
-      <c r="B82">
+      <c r="B103">
         <f t="shared" si="0"/>
         <v>4.8432087626000049E-2</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D103" s="9">
         <f t="shared" si="1"/>
         <v>4.8432087626000049E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <f t="shared" ref="A83:A94" si="4">A82+0.0001</f>
+    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" ref="A104:A110" si="4">A103+0.0001</f>
         <v>0.27620000000000011</v>
       </c>
-      <c r="B83">
+      <c r="B104">
         <f t="shared" si="0"/>
         <v>4.8491471464000076E-2</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D104" s="9">
         <f t="shared" si="1"/>
         <v>4.8491471464000076E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105">
         <f t="shared" si="4"/>
         <v>0.2763000000000001</v>
       </c>
-      <c r="B84">
+      <c r="B105">
         <f t="shared" si="0"/>
         <v>4.8550897114000076E-2</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D105" s="9">
         <f t="shared" si="1"/>
         <v>4.8550897114000076E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106">
         <f t="shared" si="4"/>
         <v>0.27640000000000009</v>
       </c>
-      <c r="B85">
+      <c r="B106">
         <f t="shared" si="0"/>
         <v>4.8610364576000049E-2</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D106" s="9">
         <f t="shared" si="1"/>
         <v>4.8610364576000049E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107">
         <f t="shared" si="4"/>
         <v>0.27650000000000008</v>
       </c>
-      <c r="B86">
+      <c r="B107">
         <f t="shared" si="0"/>
         <v>4.8669873850000024E-2</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D107" s="9">
         <f t="shared" si="1"/>
         <v>4.8669873850000024E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108">
         <f t="shared" si="4"/>
         <v>0.27660000000000007</v>
       </c>
-      <c r="B87">
+      <c r="B108">
         <f t="shared" si="0"/>
         <v>4.8729424936000056E-2</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D108" s="9">
         <f t="shared" si="1"/>
         <v>4.8729424936000056E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109">
         <f t="shared" si="4"/>
         <v>0.27670000000000006</v>
       </c>
-      <c r="B88">
+      <c r="B109">
         <f t="shared" si="0"/>
         <v>4.878901783400006E-2</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D109" s="9">
         <f t="shared" si="1"/>
         <v>4.878901783400006E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110">
         <f t="shared" si="4"/>
         <v>0.27680000000000005</v>
       </c>
-      <c r="B89">
+      <c r="B110">
         <f t="shared" si="0"/>
         <v>4.8848652544000039E-2</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D110" s="9">
         <f t="shared" si="1"/>
         <v>4.8848652544000039E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <f>A89+0.00001</f>
+    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f>A110+0.00001</f>
         <v>0.27681000000000006</v>
       </c>
-      <c r="B90">
+      <c r="B111">
         <f t="shared" si="0"/>
         <v>4.8854618314660016E-2</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D111" s="9">
         <f t="shared" si="1"/>
         <v>4.8854618314660016E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <f>A90+0.000001</f>
+    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f>A111+0.000001</f>
         <v>0.27681100000000003</v>
       </c>
-      <c r="B91">
+      <c r="B112">
         <f t="shared" si="0"/>
         <v>4.8855214914722618E-2</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D112" s="9">
         <f t="shared" si="1"/>
         <v>4.8855214914722618E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <f t="shared" ref="A92:A100" si="5">A91+0.000001</f>
+    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" ref="A113:A121" si="5">A112+0.000001</f>
         <v>0.276812</v>
       </c>
-      <c r="B92">
+      <c r="B113">
         <f t="shared" si="0"/>
         <v>4.8855811518966376E-2</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D113" s="9">
         <f t="shared" si="1"/>
         <v>4.8855811518966376E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114">
         <f t="shared" si="5"/>
         <v>0.27681299999999998</v>
       </c>
-      <c r="B93">
+      <c r="B114">
         <f t="shared" si="0"/>
         <v>4.8856408127391372E-2</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D114" s="9">
         <f t="shared" si="1"/>
         <v>4.8856408127391372E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94">
+    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115">
         <f t="shared" si="5"/>
         <v>0.27681399999999995</v>
       </c>
-      <c r="B94">
+      <c r="B115">
         <f t="shared" si="0"/>
         <v>4.885700473999758E-2</v>
       </c>
-      <c r="D94" s="9">
-        <f t="shared" ref="D94" si="6">B94-C94</f>
+      <c r="D115" s="9">
+        <f t="shared" ref="D115" si="6">B115-C115</f>
         <v>4.885700473999758E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95">
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116">
         <f t="shared" si="5"/>
         <v>0.27681499999999992</v>
       </c>
-      <c r="B95">
+      <c r="B116">
         <f t="shared" si="0"/>
         <v>4.8857601356784942E-2</v>
       </c>
-      <c r="D95" s="9">
-        <f t="shared" ref="D95:D113" si="7">B95-C95</f>
+      <c r="D116" s="9">
+        <f t="shared" ref="D116:D134" si="7">B116-C116</f>
         <v>4.8857601356784942E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96">
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117">
         <f t="shared" si="5"/>
         <v>0.2768159999999999</v>
       </c>
-      <c r="B96">
+      <c r="B117">
         <f t="shared" si="0"/>
         <v>4.8858197977753544E-2</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D117" s="9">
         <f t="shared" si="7"/>
         <v>4.8858197977753544E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97">
+    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118">
         <f t="shared" si="5"/>
         <v>0.27681699999999987</v>
       </c>
-      <c r="C97">
-        <f t="shared" ref="C63:C126" si="8">(0.1272)*A97^2 + 0.254*A97 - 0.0312</f>
+      <c r="C118">
+        <f t="shared" ref="C118:C147" si="8">(0.1272)*A118^2 + 0.254*A118 - 0.0312</f>
         <v>4.8858555269400757E-2</v>
       </c>
-      <c r="D97" s="9">
-        <f t="shared" ref="D97" si="9">B97-C97</f>
+      <c r="D118" s="9">
+        <f t="shared" ref="D118" si="9">B118-C118</f>
         <v>-4.8858555269400757E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98">
+    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119">
         <f t="shared" si="5"/>
         <v>0.27681799999999984</v>
       </c>
-      <c r="C98">
+      <c r="C119">
         <f t="shared" si="8"/>
         <v>4.8858879691772751E-2</v>
       </c>
-      <c r="D98" s="9">
-        <f t="shared" ref="D98:D103" si="10">B98-C98</f>
+      <c r="D119" s="9">
+        <f t="shared" ref="D119:D124" si="10">B119-C119</f>
         <v>-4.8858879691772751E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99">
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120">
         <f t="shared" si="5"/>
         <v>0.27681899999999982</v>
       </c>
-      <c r="C99">
+      <c r="C120">
         <f t="shared" si="8"/>
         <v>4.8859204114399153E-2</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D120" s="9">
         <f t="shared" si="10"/>
         <v>-4.8859204114399153E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100">
+    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121">
         <f t="shared" si="5"/>
         <v>0.27681999999999979</v>
       </c>
-      <c r="C100">
+      <c r="C121">
         <f t="shared" si="8"/>
         <v>4.8859528537279935E-2</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D121" s="9">
         <f t="shared" si="10"/>
         <v>-4.8859528537279935E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <f t="shared" ref="A98:A103" si="11">A100+0.000001</f>
+    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f t="shared" ref="A122:A124" si="11">A121+0.000001</f>
         <v>0.27682099999999976</v>
       </c>
-      <c r="C101">
+      <c r="C122">
         <f t="shared" si="8"/>
         <v>4.8859852960415125E-2</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D122" s="9">
         <f t="shared" si="10"/>
         <v>-4.8859852960415125E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102">
+    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123">
         <f t="shared" si="11"/>
         <v>0.27682199999999973</v>
       </c>
-      <c r="C102">
+      <c r="C123">
         <f t="shared" si="8"/>
         <v>4.8860177383804722E-2</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D123" s="9">
         <f t="shared" si="10"/>
         <v>-4.8860177383804722E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103">
+    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124">
         <f t="shared" si="11"/>
         <v>0.27682299999999971</v>
       </c>
-      <c r="C103">
+      <c r="C124">
         <f t="shared" si="8"/>
         <v>4.8860501807448699E-2</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D124" s="9">
         <f t="shared" si="10"/>
         <v>-4.8860501807448699E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <f t="shared" ref="A104:A112" si="12">A103+0.000001</f>
+    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f t="shared" ref="A125" si="12">A124+0.000001</f>
         <v>0.27682399999999968</v>
       </c>
-      <c r="C104">
+      <c r="C125">
         <f t="shared" si="8"/>
         <v>4.8860826231347097E-2</v>
       </c>
-      <c r="D104" s="9">
-        <f t="shared" ref="D104:D112" si="13">B104-C104</f>
+      <c r="D125" s="9">
+        <f t="shared" ref="D125:D126" si="13">B125-C125</f>
         <v>-4.8860826231347097E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <f>A104+0.0000001</f>
+    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f>A125+0.0000001</f>
         <v>0.27682409999999968</v>
       </c>
-      <c r="C105">
+      <c r="C126">
         <f t="shared" si="8"/>
         <v>4.886085867375093E-2</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D126" s="9">
         <f t="shared" si="13"/>
         <v>-4.886085867375093E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <f t="shared" ref="A106:A112" si="14">A105+0.0000001</f>
+    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <f t="shared" ref="A127:A133" si="14">A126+0.0000001</f>
         <v>0.27682419999999969</v>
       </c>
-      <c r="C106">
+      <c r="C127">
         <f t="shared" si="8"/>
         <v>4.8860891116157316E-2</v>
       </c>
-      <c r="D106" s="9">
-        <f t="shared" ref="D106:D112" si="15">B106-C106</f>
+      <c r="D127" s="9">
+        <f t="shared" ref="D127:D133" si="15">B127-C127</f>
         <v>-4.8860891116157316E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107">
+    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128">
         <f t="shared" si="14"/>
         <v>0.27682429999999969</v>
       </c>
-      <c r="C107">
+      <c r="C128">
         <f t="shared" si="8"/>
         <v>4.8860923558566229E-2</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D128" s="9">
         <f t="shared" si="15"/>
         <v>-4.8860923558566229E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108">
+    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129">
         <f t="shared" si="14"/>
         <v>0.27682439999999969</v>
       </c>
-      <c r="C108">
+      <c r="C129">
         <f t="shared" si="8"/>
         <v>4.8860956000977694E-2</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D129" s="9">
         <f t="shared" si="15"/>
         <v>-4.8860956000977694E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <f>A108+0.0000001</f>
+    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f>A129+0.0000001</f>
         <v>0.2768244999999997</v>
       </c>
-      <c r="C109">
+      <c r="C130">
         <f t="shared" si="8"/>
         <v>4.8860988443391713E-2</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D130" s="9">
         <f t="shared" si="15"/>
         <v>-4.8860988443391713E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110">
+    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131">
         <f t="shared" si="14"/>
         <v>0.2768245999999997</v>
       </c>
-      <c r="C110">
+      <c r="C131">
         <f t="shared" si="8"/>
         <v>4.8861020885808258E-2</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D131" s="9">
         <f t="shared" si="15"/>
         <v>-4.8861020885808258E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111">
+    <row r="132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132">
         <f t="shared" si="14"/>
         <v>0.2768246999999997</v>
       </c>
-      <c r="C111">
+      <c r="C132">
         <f t="shared" si="8"/>
         <v>4.8861053328227357E-2</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D132" s="9">
         <f t="shared" si="15"/>
         <v>-4.8861053328227357E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112">
+    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133">
         <f t="shared" si="14"/>
         <v>0.2768247999999997</v>
       </c>
-      <c r="C112">
+      <c r="C133">
         <f t="shared" si="8"/>
         <v>4.8861085770648995E-2</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D133" s="9">
         <f t="shared" si="15"/>
         <v>-4.8861085770648995E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <f>A96+0.00001</f>
+    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <f>A117+0.00001</f>
         <v>0.27682599999999991</v>
       </c>
-      <c r="C113">
+      <c r="C134">
         <f t="shared" si="8"/>
         <v>4.8861475079907173E-2</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D134" s="9">
         <f t="shared" si="7"/>
         <v>-4.8861475079907173E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <f>A93+0.00005</f>
+    <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <f>A114+0.00005</f>
         <v>0.27686299999999997</v>
       </c>
-      <c r="C114">
+      <c r="C135">
         <f t="shared" si="8"/>
         <v>4.8873478961816784E-2</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D135" s="9">
         <f t="shared" si="1"/>
         <v>-4.8873478961816784E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <f t="shared" ref="A115" si="16">A114+0.00005</f>
+    <row r="136" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <f t="shared" ref="A136" si="16">A135+0.00005</f>
         <v>0.27691299999999996</v>
       </c>
-      <c r="C115">
+      <c r="C136">
         <f t="shared" si="8"/>
         <v>4.8889700977176785E-2</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D136" s="9">
         <f t="shared" si="1"/>
         <v>-4.8889700977176785E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <f>A88+0.001</f>
+    <row r="137" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <f>A109+0.001</f>
         <v>0.27770000000000006</v>
       </c>
-      <c r="C116">
+      <c r="C137">
         <f t="shared" si="8"/>
         <v>4.9145119288000021E-2</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D137" s="9">
         <f t="shared" si="1"/>
         <v>-4.9145119288000021E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <f>A116+0.001</f>
+    <row r="138" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <f>A137+0.001</f>
         <v>0.27870000000000006</v>
       </c>
-      <c r="C117">
+      <c r="C138">
         <f t="shared" si="8"/>
         <v>4.9469893368000013E-2</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D138" s="9">
         <f t="shared" si="1"/>
         <v>-4.9469893368000013E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <f t="shared" ref="A118:A122" si="17">A117+0.001</f>
+    <row r="139" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <f t="shared" ref="A139:A143" si="17">A138+0.001</f>
         <v>0.27970000000000006</v>
       </c>
-      <c r="C118">
+      <c r="C139">
         <f t="shared" si="8"/>
         <v>4.979492184800003E-2</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D139" s="9">
         <f t="shared" si="1"/>
         <v>-4.979492184800003E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119">
+    <row r="140" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140">
         <f t="shared" si="17"/>
         <v>0.28070000000000006</v>
       </c>
-      <c r="C119">
+      <c r="C140">
         <f t="shared" si="8"/>
         <v>5.012020472800003E-2</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D140" s="9">
         <f t="shared" si="1"/>
         <v>-5.012020472800003E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120">
+    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141">
         <f t="shared" si="17"/>
         <v>0.28170000000000006</v>
       </c>
-      <c r="C120">
+      <c r="C141">
         <f t="shared" si="8"/>
         <v>5.0445742008000012E-2</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D141" s="9">
         <f t="shared" si="1"/>
         <v>-5.0445742008000012E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121">
+    <row r="142" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142">
         <f t="shared" si="17"/>
         <v>0.28270000000000006</v>
       </c>
-      <c r="C121">
+      <c r="C142">
         <f t="shared" si="8"/>
         <v>5.0771533688000019E-2</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D142" s="9">
         <f t="shared" si="1"/>
         <v>-5.0771533688000019E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122">
+    <row r="143" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143">
         <f t="shared" si="17"/>
         <v>0.28370000000000006</v>
       </c>
-      <c r="C122">
+      <c r="C143">
         <f t="shared" si="8"/>
         <v>5.1097579768000036E-2</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D143" s="9">
         <f t="shared" si="1"/>
         <v>-5.1097579768000036E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <f>A87+0.01</f>
+    <row r="144" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <f>A108+0.01</f>
         <v>0.28660000000000008</v>
       </c>
-      <c r="C123">
+      <c r="C144">
         <f t="shared" si="8"/>
         <v>5.2044552032000028E-2</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D144" s="9">
         <f t="shared" si="1"/>
         <v>-5.2044552032000028E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <f>A123+0.01</f>
+    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <f>A144+0.01</f>
         <v>0.29660000000000009</v>
       </c>
-      <c r="C124">
+      <c r="C145">
         <f t="shared" si="8"/>
         <v>5.5326382432000033E-2</v>
       </c>
-      <c r="D124" s="9">
+      <c r="D145" s="9">
         <f t="shared" si="1"/>
         <v>-5.5326382432000033E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125">
+    <row r="146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146">
         <f t="shared" si="2"/>
         <v>0.30660000000000009</v>
       </c>
-      <c r="C125">
+      <c r="C146">
         <f t="shared" si="8"/>
         <v>5.863365283200004E-2</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D146" s="9">
         <f t="shared" si="1"/>
         <v>-5.863365283200004E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126">
+    <row r="147" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147">
         <f t="shared" si="2"/>
         <v>0.3166000000000001</v>
       </c>
-      <c r="C126">
+      <c r="C147">
         <f t="shared" si="8"/>
         <v>6.1966363232000034E-2</v>
       </c>
-      <c r="D126" s="9">
+      <c r="D147" s="9">
         <f t="shared" si="1"/>
         <v>-6.1966363232000034E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127">
+    <row r="148" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148">
         <f t="shared" si="2"/>
         <v>0.32660000000000011</v>
       </c>
-      <c r="C127">
-        <f t="shared" ref="C127:C133" si="18">(0.1272)*A127^2 + 0.254*A127 - 0.0312</f>
+      <c r="C148">
+        <f t="shared" ref="C148:C154" si="18">(0.1272)*A148^2 + 0.254*A148 - 0.0312</f>
         <v>6.5324513632000036E-2</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D148" s="9">
         <f t="shared" si="1"/>
         <v>-6.5324513632000036E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128">
+    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149">
         <f t="shared" si="2"/>
         <v>0.33660000000000012</v>
       </c>
-      <c r="C128">
+      <c r="C149">
         <f t="shared" si="18"/>
         <v>6.8708104032000034E-2</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D149" s="9">
         <f t="shared" si="1"/>
         <v>-6.8708104032000034E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="150" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150">
         <f t="shared" si="2"/>
         <v>0.34660000000000013</v>
       </c>
-      <c r="C129">
+      <c r="C150">
         <f t="shared" si="18"/>
         <v>7.2117134432000046E-2</v>
       </c>
-      <c r="D129" s="9">
+      <c r="D150" s="9">
         <f t="shared" si="1"/>
         <v>-7.2117134432000046E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130">
+    <row r="151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151">
         <f t="shared" si="2"/>
         <v>0.35660000000000014</v>
       </c>
-      <c r="C130">
+      <c r="C151">
         <f t="shared" si="18"/>
         <v>7.5551604832000047E-2</v>
       </c>
-      <c r="D130" s="9">
+      <c r="D151" s="9">
         <f t="shared" si="1"/>
         <v>-7.5551604832000047E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A131">
+    <row r="152" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152">
         <f t="shared" si="2"/>
         <v>0.36660000000000015</v>
       </c>
-      <c r="C131">
+      <c r="C152">
         <f t="shared" si="18"/>
         <v>7.9011515232000062E-2</v>
       </c>
-      <c r="D131" s="9">
+      <c r="D152" s="9">
         <f t="shared" si="1"/>
         <v>-7.9011515232000062E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132">
+    <row r="153" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153">
         <f t="shared" si="2"/>
         <v>0.37660000000000016</v>
       </c>
-      <c r="C132">
+      <c r="C153">
         <f t="shared" si="18"/>
         <v>8.2496865632000066E-2</v>
       </c>
-      <c r="D132" s="9">
+      <c r="D153" s="9">
         <f t="shared" si="1"/>
         <v>-8.2496865632000066E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133">
+    <row r="154" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154">
         <f t="shared" si="2"/>
         <v>0.38660000000000017</v>
       </c>
-      <c r="C133">
+      <c r="C154">
         <f t="shared" si="18"/>
         <v>8.6007656032000057E-2</v>
       </c>
-      <c r="D133" s="9">
+      <c r="D154" s="9">
         <f t="shared" si="1"/>
         <v>-8.6007656032000057E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E9">
+    <sortCondition descending="1" ref="A4:A9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Discharge/RatingCurves/Stn1.xlsx
+++ b/Discharge/RatingCurves/Stn1.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D6EE7-CEBF-5B4F-82E0-FB509B900D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA638333-51BC-4945-819B-A15B3FB91FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="500" windowWidth="20900" windowHeight="20260" xr2:uid="{07CF2191-7EB6-48FB-98A6-089F23ACF832}"/>
+    <workbookView xWindow="11620" yWindow="500" windowWidth="24120" windowHeight="20260" xr2:uid="{07CF2191-7EB6-48FB-98A6-089F23ACF832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$J$53:$J$86</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$K$53:$K$86</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>Station 1</t>
   </si>
@@ -76,6 +80,12 @@
   </si>
   <si>
     <t>High_Q</t>
+  </si>
+  <si>
+    <t>adjusted level</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -1628,339 +1638,81 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$83:$A$154</c:f>
+              <c:f>Sheet1!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>8.5761050000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15000000000000002</c:v>
+                  <c:v>8.3693229999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16000000000000003</c:v>
+                  <c:v>9.911259E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17000000000000004</c:v>
+                  <c:v>0.1023395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18000000000000005</c:v>
+                  <c:v>0.1417736</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19000000000000006</c:v>
+                  <c:v>0.1015798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20000000000000007</c:v>
+                  <c:v>0.1085211</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21000000000000008</c:v>
+                  <c:v>0.39046740000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22000000000000008</c:v>
+                  <c:v>0.14500289999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.25000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.26000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.27000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.27100000000000013</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.27200000000000013</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.27300000000000013</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.27400000000000013</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.27500000000000013</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.27600000000000013</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.27610000000000012</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.27620000000000011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.2763000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.27640000000000009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.27650000000000008</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.27660000000000007</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27670000000000006</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27680000000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.27681000000000006</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.27681100000000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.276812</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.27681299999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.27681399999999995</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.27681499999999992</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.2768159999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.27681699999999987</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.27681799999999984</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.27681899999999982</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.27681999999999979</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.27682099999999976</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.27682199999999973</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.27682299999999971</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.27682399999999968</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.27682409999999968</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.27682419999999969</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.27682429999999969</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.27682439999999969</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.2768244999999997</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.2768245999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.2768246999999997</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.2768247999999997</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.27682599999999991</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.27686299999999997</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.27691299999999996</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.27770000000000006</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.27870000000000006</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.27970000000000006</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.28070000000000006</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.28170000000000006</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.28270000000000006</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.28370000000000006</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.28660000000000008</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.29660000000000009</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.30660000000000009</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.3166000000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.32660000000000011</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.33660000000000012</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.34660000000000013</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.35660000000000014</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.36660000000000015</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.37660000000000016</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.38660000000000017</c:v>
+                  <c:v>0.12613160000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$83:$B$154</c:f>
+              <c:f>Sheet1!$E$4:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.363760000000003E-3</c:v>
+                  <c:v>1.2605186880000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8185000000000121E-3</c:v>
+                  <c:v>7.9036672000000023E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6913600000000013E-3</c:v>
+                  <c:v>5.3756560000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9823400000000053E-3</c:v>
+                  <c:v>5.3134260000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0691440000000017E-2</c:v>
+                  <c:v>1.6421176199999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2818660000000016E-2</c:v>
+                  <c:v>7.5004930000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5364000000000023E-2</c:v>
+                  <c:v>8.4630260000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8327460000000025E-2</c:v>
+                  <c:v>0.1407622788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1709040000000034E-2</c:v>
+                  <c:v>3.3975598799999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5508740000000037E-2</c:v>
+                  <c:v>1.5162255679999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9726560000000048E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.4362500000000053E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.941656000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4888740000000101E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.545895460000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.6033350400000096E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.6611927400000065E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.7194685600000098E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7781625000000084E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.8372745600000079E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8432087626000049E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.8491471464000076E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8550897114000076E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.8610364576000049E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.8669873850000024E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.8729424936000056E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.878901783400006E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.8848652544000039E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.8854618314660016E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.8855214914722618E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.8855811518966376E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.8856408127391372E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.885700473999758E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.8857601356784942E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.8858197977753544E-2</c:v>
+                  <c:v>1.4434362799999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,384 +1720,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B340-2E43-960C-6B521E571786}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$83:$A$154</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.20000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.22000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.23000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.25000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.26000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.27000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.27100000000000013</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.27200000000000013</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.27300000000000013</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.27400000000000013</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.27500000000000013</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.27600000000000013</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.27610000000000012</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.27620000000000011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.2763000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.27640000000000009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.27650000000000008</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.27660000000000007</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27670000000000006</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27680000000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.27681000000000006</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.27681100000000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.276812</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.27681299999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.27681399999999995</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.27681499999999992</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.2768159999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.27681699999999987</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.27681799999999984</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.27681899999999982</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.27681999999999979</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.27682099999999976</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.27682199999999973</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.27682299999999971</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.27682399999999968</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.27682409999999968</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.27682419999999969</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.27682429999999969</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.27682439999999969</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.2768244999999997</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.2768245999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.2768246999999997</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.2768247999999997</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.27682599999999991</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.27686299999999997</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.27691299999999996</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.27770000000000006</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.27870000000000006</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.27970000000000006</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.28070000000000006</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.28170000000000006</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.28270000000000006</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.28370000000000006</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.28660000000000008</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.29660000000000009</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.30660000000000009</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.3166000000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.32660000000000011</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.33660000000000012</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.34660000000000013</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.35660000000000014</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.36660000000000015</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.37660000000000016</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.38660000000000017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$83:$C$154</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="35">
-                  <c:v>4.8858555269400757E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.8858879691772751E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.8859204114399153E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.8859528537279935E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.8859852960415125E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.8860177383804722E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.8860501807448699E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.8860826231347097E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.886085867375093E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.8860891116157316E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.8860923558566229E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.8860956000977694E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.8860988443391713E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.8861020885808258E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.8861053328227357E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.8861085770648995E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.8861475079907173E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4.8873478961816784E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4.8889700977176785E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.9145119288000021E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.9469893368000013E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.979492184800003E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.012020472800003E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.0445742008000012E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.0771533688000019E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.1097579768000036E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.2044552032000028E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.5326382432000033E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.863365283200004E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.1966363232000034E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.5324513632000036E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.8708104032000034E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>7.2117134432000046E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>7.5551604832000047E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7.9011515232000062E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>8.2496865632000066E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8.6007656032000057E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B340-2E43-960C-6B521E571786}"/>
+              <c16:uniqueId val="{00000000-E166-8F45-B6A5-BF74DD3056A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2357,11 +1732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="550609583"/>
-        <c:axId val="548721375"/>
+        <c:axId val="1452247167"/>
+        <c:axId val="1452248895"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="550609583"/>
+        <c:axId val="1452247167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,12 +1793,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548721375"/>
+        <c:crossAx val="1452248895"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="548721375"/>
+        <c:axId val="1452248895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +1855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550609583"/>
+        <c:crossAx val="1452247167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2492,37 +1867,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2642,12 +1986,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$53:$J$85</c:f>
+              <c:f>Sheet1!$J$53:$J$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.1457996</c:v>
                 </c:pt>
@@ -2712,41 +2101,74 @@
                   <c:v>0.18866859999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1</c:v>
+                  <c:v>8.5761050000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1</c:v>
+                  <c:v>8.3693229999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1</c:v>
+                  <c:v>9.911259E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1</c:v>
+                  <c:v>0.1023395</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1</c:v>
+                  <c:v>0.1417736</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1</c:v>
+                  <c:v>0.1015798</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1</c:v>
+                  <c:v>0.1085211</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1</c:v>
+                  <c:v>0.39046740000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1</c:v>
+                  <c:v>0.14500289999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.12613160000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$53:$K$85</c:f>
+              <c:f>Sheet1!$K$53:$K$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.97E-3</c:v>
                 </c:pt>
@@ -2811,31 +2233,64 @@
                   <c:v>1.6420000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>1.2605186880000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>7.9036672000000023E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>5.3756560000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>5.3134260000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>1.6421176199999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>7.5004930000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>8.4630260000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>0.1407622788</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>3.3975598799999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5162255679999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,7 +2298,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E549-0343-8E9B-9FB12E9D2219}"/>
+              <c16:uniqueId val="{00000000-C06F-7D49-982A-646C443498E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2855,11 +2310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1483243759"/>
-        <c:axId val="1482837343"/>
+        <c:axId val="1096000143"/>
+        <c:axId val="1096130255"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1483243759"/>
+        <c:axId val="1096000143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,12 +2371,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1482837343"/>
+        <c:crossAx val="1096130255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1482837343"/>
+        <c:axId val="1096130255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +2433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1483243759"/>
+        <c:crossAx val="1096000143"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5819,15 +5274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>429286</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:colOff>347643</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>54882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66807</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>656450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19957</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5926,23 +5381,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>362856</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>134258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>566965</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>47172</xdr:rowOff>
+      <xdr:colOff>235856</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8DF55B-FCEE-CB70-E1E0-31F34EADFAC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720BFAD9-7A93-5A39-48CC-C9FBDD647CFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5963,22 +5418,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>188686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>589642</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>137886</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE59554-868C-25D8-113E-B951209E27C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EE3BD4-FE97-950C-99CF-6EAC2CC52140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6298,8 +5753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF5C914-8BD5-4CA5-BE79-A5668D7FBF75}">
   <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6332,172 +5787,202 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>43690</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D4" s="11">
+        <v>8.5761050000000005E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.2605186880000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>43686</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="D5" s="11">
+        <v>8.3693229999999993E-2</v>
+      </c>
+      <c r="E5">
+        <v>7.9036672000000023E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>43685</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="2">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C6" s="2">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E4">
+      <c r="D6" s="11">
+        <v>9.911259E-2</v>
+      </c>
+      <c r="E6">
         <v>5.3756560000000004E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>43684</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2">
         <v>0.48819444444444443</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="2">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E5">
+      <c r="D7" s="11">
+        <v>0.1023395</v>
+      </c>
+      <c r="E7">
         <v>5.3134260000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>43682</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>0.65625</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="2">
         <v>0.65625</v>
       </c>
-      <c r="E6">
+      <c r="D8" s="11">
+        <v>0.1417736</v>
+      </c>
+      <c r="E8">
         <v>1.6421176199999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>43679</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>0.53125</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <v>0.53125</v>
       </c>
-      <c r="E7">
+      <c r="D9" s="11">
+        <v>0.1015798</v>
+      </c>
+      <c r="E9">
         <v>7.5004930000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>43678</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E8">
+      <c r="D10" s="11">
+        <v>0.1085211</v>
+      </c>
+      <c r="E10">
         <v>8.4630260000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>43670</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.39046740000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.1407622788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>43668</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B12" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C12" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E9">
+      <c r="D12" s="11">
+        <v>0.14500289999999999</v>
+      </c>
+      <c r="E12">
         <v>3.3975598799999993E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>43686</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.46875</v>
-      </c>
-      <c r="E10">
-        <v>7.9036672000000023E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>43690</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="E11">
-        <v>1.2605186880000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>43656</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.46875</v>
-      </c>
-      <c r="E12">
-        <v>3.00818804E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.12613160000000001</v>
+      </c>
+      <c r="E13">
+        <v>1.5162255679999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>43657</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>0.49305555555555558</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.4434362799999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>43665</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.59375</v>
-      </c>
-      <c r="E14">
-        <v>1.5162255679999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>43670</v>
+        <v>43656</v>
       </c>
       <c r="B15" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="C15" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.46875</v>
       </c>
       <c r="E15">
-        <v>0.1407622788</v>
+        <v>3.00818804E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -6895,6 +6380,12 @@
       <c r="F50" s="6"/>
       <c r="H50" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -7615,11 +7106,11 @@
       <c r="H77">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J77" s="9">
-        <v>0.1</v>
+      <c r="J77" s="11">
+        <v>8.5761050000000005E-2</v>
       </c>
       <c r="K77">
-        <v>1.0000000000000001E-5</v>
+        <v>1.2605186880000001E-2</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7630,11 +7121,11 @@
       <c r="H78">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J78" s="9">
-        <v>0.1</v>
+      <c r="J78" s="11">
+        <v>8.3693229999999993E-2</v>
       </c>
       <c r="K78">
-        <v>1.0000000000000001E-5</v>
+        <v>7.9036672000000023E-3</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7645,11 +7136,11 @@
       <c r="H79">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J79" s="9">
-        <v>0.1</v>
+      <c r="J79" s="11">
+        <v>9.911259E-2</v>
       </c>
       <c r="K79">
-        <v>1.0000000000000001E-5</v>
+        <v>5.3756560000000004E-3</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7660,14 +7151,14 @@
       <c r="H80">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J80" s="9">
-        <v>0.1</v>
+      <c r="J80" s="11">
+        <v>0.1023395</v>
       </c>
       <c r="K80">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>5.3134260000000004E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="4:11" ht="16" x14ac:dyDescent="0.2">
       <c r="D81" s="9"/>
       <c r="G81" s="9">
         <v>0.1</v>
@@ -7675,14 +7166,14 @@
       <c r="H81">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J81" s="9">
-        <v>0.1</v>
+      <c r="J81" s="11">
+        <v>0.1417736</v>
       </c>
       <c r="K81">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>1.6421176199999998E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" ht="16" x14ac:dyDescent="0.2">
       <c r="D82" s="9"/>
       <c r="G82" s="9">
         <v>0.1</v>
@@ -7690,1059 +7181,334 @@
       <c r="H82">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J82" s="9">
-        <v>0.1</v>
+      <c r="J82" s="11">
+        <v>0.1015798</v>
       </c>
       <c r="K82">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="B83">
-        <f>2.0906*A83^2 - 0.5608*A83 + 0.0439</f>
-        <v>6.363760000000003E-3</v>
-      </c>
-      <c r="D83" s="9">
-        <f>B83-C83</f>
-        <v>6.363760000000003E-3</v>
-      </c>
+        <v>7.5004930000000004E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D83" s="9"/>
       <c r="G83" s="9">
         <v>0.1</v>
       </c>
       <c r="H83">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J83" s="9">
-        <v>0.1</v>
+      <c r="J83" s="11">
+        <v>0.1085211</v>
       </c>
       <c r="K83">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <f>A83+0.01</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="B84">
-        <f t="shared" ref="B84:B117" si="0">2.0906*A84^2 - 0.5608*A84 + 0.0439</f>
-        <v>6.8185000000000121E-3</v>
-      </c>
-      <c r="D84" s="9">
-        <f t="shared" ref="D84:D154" si="1">B84-C84</f>
-        <v>6.8185000000000121E-3</v>
-      </c>
+        <v>8.4630260000000002E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D84" s="9"/>
       <c r="G84" s="9">
         <v>0.1</v>
       </c>
       <c r="H84">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J84" s="9">
-        <v>0.1</v>
+      <c r="J84" s="11">
+        <v>0.39046740000000002</v>
       </c>
       <c r="K84">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <f t="shared" ref="A85:A154" si="2">A84+0.01</f>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="0"/>
-        <v>7.6913600000000013E-3</v>
-      </c>
-      <c r="D85" s="9">
-        <f t="shared" si="1"/>
-        <v>7.6913600000000013E-3</v>
-      </c>
+        <v>0.1407622788</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D85" s="9"/>
       <c r="G85" s="9">
         <v>0.1</v>
       </c>
       <c r="H85">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J85" s="9">
-        <v>0.1</v>
+      <c r="J85" s="11">
+        <v>0.14500289999999999</v>
       </c>
       <c r="K85">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <f t="shared" si="2"/>
-        <v>0.17000000000000004</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="0"/>
-        <v>8.9823400000000053E-3</v>
-      </c>
-      <c r="D86" s="9">
-        <f t="shared" si="1"/>
-        <v>8.9823400000000053E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <f t="shared" si="2"/>
-        <v>0.18000000000000005</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="0"/>
-        <v>1.0691440000000017E-2</v>
-      </c>
-      <c r="D87" s="9">
-        <f t="shared" si="1"/>
-        <v>1.0691440000000017E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <f t="shared" si="2"/>
-        <v>0.19000000000000006</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="0"/>
-        <v>1.2818660000000016E-2</v>
-      </c>
-      <c r="D88" s="9">
-        <f t="shared" si="1"/>
-        <v>1.2818660000000016E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <f t="shared" si="2"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="0"/>
-        <v>1.5364000000000023E-2</v>
-      </c>
-      <c r="D89" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5364000000000023E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <f t="shared" si="2"/>
-        <v>0.21000000000000008</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="0"/>
-        <v>1.8327460000000025E-2</v>
-      </c>
-      <c r="D90" s="9">
-        <f t="shared" si="1"/>
-        <v>1.8327460000000025E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <f t="shared" si="2"/>
-        <v>0.22000000000000008</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="0"/>
-        <v>2.1709040000000034E-2</v>
-      </c>
-      <c r="D91" s="9">
-        <f t="shared" si="1"/>
-        <v>2.1709040000000034E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <f t="shared" si="2"/>
-        <v>0.23000000000000009</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="0"/>
-        <v>2.5508740000000037E-2</v>
-      </c>
-      <c r="D92" s="9">
-        <f t="shared" si="1"/>
-        <v>2.5508740000000037E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <f t="shared" si="2"/>
-        <v>0.2400000000000001</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="0"/>
-        <v>2.9726560000000048E-2</v>
-      </c>
-      <c r="D93" s="9">
-        <f t="shared" si="1"/>
-        <v>2.9726560000000048E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <f t="shared" si="2"/>
-        <v>0.25000000000000011</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="0"/>
-        <v>3.4362500000000053E-2</v>
-      </c>
-      <c r="D94" s="9">
-        <f t="shared" si="1"/>
-        <v>3.4362500000000053E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <f t="shared" si="2"/>
-        <v>0.26000000000000012</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="0"/>
-        <v>3.941656000000008E-2</v>
-      </c>
-      <c r="D95" s="9">
-        <f t="shared" si="1"/>
-        <v>3.941656000000008E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <f t="shared" si="2"/>
-        <v>0.27000000000000013</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="0"/>
-        <v>4.4888740000000101E-2</v>
-      </c>
-      <c r="D96" s="9">
-        <f t="shared" si="1"/>
-        <v>4.4888740000000101E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <f>A96+0.001</f>
-        <v>0.27100000000000013</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="0"/>
-        <v>4.545895460000008E-2</v>
-      </c>
-      <c r="D97" s="9">
-        <f t="shared" si="1"/>
-        <v>4.545895460000008E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <f t="shared" ref="A98:A102" si="3">A97+0.001</f>
-        <v>0.27200000000000013</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="0"/>
-        <v>4.6033350400000096E-2</v>
-      </c>
-      <c r="D98" s="9">
-        <f t="shared" si="1"/>
-        <v>4.6033350400000096E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <f t="shared" si="3"/>
-        <v>0.27300000000000013</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="0"/>
-        <v>4.6611927400000065E-2</v>
-      </c>
-      <c r="D99" s="9">
-        <f t="shared" si="1"/>
-        <v>4.6611927400000065E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <f t="shared" si="3"/>
-        <v>0.27400000000000013</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="0"/>
-        <v>4.7194685600000098E-2</v>
-      </c>
-      <c r="D100" s="9">
-        <f t="shared" si="1"/>
-        <v>4.7194685600000098E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <f t="shared" si="3"/>
-        <v>0.27500000000000013</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="0"/>
-        <v>4.7781625000000084E-2</v>
-      </c>
-      <c r="D101" s="9">
-        <f t="shared" si="1"/>
-        <v>4.7781625000000084E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <f t="shared" si="3"/>
-        <v>0.27600000000000013</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="0"/>
-        <v>4.8372745600000079E-2</v>
-      </c>
-      <c r="D102" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8372745600000079E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <f>A102+0.0001</f>
-        <v>0.27610000000000012</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="0"/>
-        <v>4.8432087626000049E-2</v>
-      </c>
-      <c r="D103" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8432087626000049E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <f t="shared" ref="A104:A110" si="4">A103+0.0001</f>
-        <v>0.27620000000000011</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="0"/>
-        <v>4.8491471464000076E-2</v>
-      </c>
-      <c r="D104" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8491471464000076E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <f t="shared" si="4"/>
-        <v>0.2763000000000001</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="0"/>
-        <v>4.8550897114000076E-2</v>
-      </c>
-      <c r="D105" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8550897114000076E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <f t="shared" si="4"/>
-        <v>0.27640000000000009</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="0"/>
-        <v>4.8610364576000049E-2</v>
-      </c>
-      <c r="D106" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8610364576000049E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <f t="shared" si="4"/>
-        <v>0.27650000000000008</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="0"/>
-        <v>4.8669873850000024E-2</v>
-      </c>
-      <c r="D107" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8669873850000024E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <f t="shared" si="4"/>
-        <v>0.27660000000000007</v>
-      </c>
-      <c r="B108">
-        <f t="shared" si="0"/>
-        <v>4.8729424936000056E-2</v>
-      </c>
-      <c r="D108" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8729424936000056E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <f t="shared" si="4"/>
-        <v>0.27670000000000006</v>
-      </c>
-      <c r="B109">
-        <f t="shared" si="0"/>
-        <v>4.878901783400006E-2</v>
-      </c>
-      <c r="D109" s="9">
-        <f t="shared" si="1"/>
-        <v>4.878901783400006E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <f t="shared" si="4"/>
-        <v>0.27680000000000005</v>
-      </c>
-      <c r="B110">
-        <f t="shared" si="0"/>
-        <v>4.8848652544000039E-2</v>
-      </c>
-      <c r="D110" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8848652544000039E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <f>A110+0.00001</f>
-        <v>0.27681000000000006</v>
-      </c>
-      <c r="B111">
-        <f t="shared" si="0"/>
-        <v>4.8854618314660016E-2</v>
-      </c>
-      <c r="D111" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8854618314660016E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <f>A111+0.000001</f>
-        <v>0.27681100000000003</v>
-      </c>
-      <c r="B112">
-        <f t="shared" si="0"/>
-        <v>4.8855214914722618E-2</v>
-      </c>
-      <c r="D112" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8855214914722618E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <f t="shared" ref="A113:A121" si="5">A112+0.000001</f>
-        <v>0.276812</v>
-      </c>
-      <c r="B113">
-        <f t="shared" si="0"/>
-        <v>4.8855811518966376E-2</v>
-      </c>
-      <c r="D113" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8855811518966376E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <f t="shared" si="5"/>
-        <v>0.27681299999999998</v>
-      </c>
-      <c r="B114">
-        <f t="shared" si="0"/>
-        <v>4.8856408127391372E-2</v>
-      </c>
-      <c r="D114" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8856408127391372E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <f t="shared" si="5"/>
-        <v>0.27681399999999995</v>
-      </c>
-      <c r="B115">
-        <f t="shared" si="0"/>
-        <v>4.885700473999758E-2</v>
-      </c>
-      <c r="D115" s="9">
-        <f t="shared" ref="D115" si="6">B115-C115</f>
-        <v>4.885700473999758E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <f t="shared" si="5"/>
-        <v>0.27681499999999992</v>
-      </c>
-      <c r="B116">
-        <f t="shared" si="0"/>
-        <v>4.8857601356784942E-2</v>
-      </c>
-      <c r="D116" s="9">
-        <f t="shared" ref="D116:D134" si="7">B116-C116</f>
-        <v>4.8857601356784942E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <f t="shared" si="5"/>
-        <v>0.2768159999999999</v>
-      </c>
-      <c r="B117">
-        <f t="shared" si="0"/>
-        <v>4.8858197977753544E-2</v>
-      </c>
-      <c r="D117" s="9">
-        <f t="shared" si="7"/>
-        <v>4.8858197977753544E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <f t="shared" si="5"/>
-        <v>0.27681699999999987</v>
-      </c>
-      <c r="C118">
-        <f t="shared" ref="C118:C147" si="8">(0.1272)*A118^2 + 0.254*A118 - 0.0312</f>
-        <v>4.8858555269400757E-2</v>
-      </c>
-      <c r="D118" s="9">
-        <f t="shared" ref="D118" si="9">B118-C118</f>
-        <v>-4.8858555269400757E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <f t="shared" si="5"/>
-        <v>0.27681799999999984</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="8"/>
-        <v>4.8858879691772751E-2</v>
-      </c>
-      <c r="D119" s="9">
-        <f t="shared" ref="D119:D124" si="10">B119-C119</f>
-        <v>-4.8858879691772751E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <f t="shared" si="5"/>
-        <v>0.27681899999999982</v>
-      </c>
-      <c r="C120">
-        <f t="shared" si="8"/>
-        <v>4.8859204114399153E-2</v>
-      </c>
-      <c r="D120" s="9">
-        <f t="shared" si="10"/>
-        <v>-4.8859204114399153E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <f t="shared" si="5"/>
-        <v>0.27681999999999979</v>
-      </c>
-      <c r="C121">
-        <f t="shared" si="8"/>
-        <v>4.8859528537279935E-2</v>
-      </c>
-      <c r="D121" s="9">
-        <f t="shared" si="10"/>
-        <v>-4.8859528537279935E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <f t="shared" ref="A122:A124" si="11">A121+0.000001</f>
-        <v>0.27682099999999976</v>
-      </c>
-      <c r="C122">
-        <f t="shared" si="8"/>
-        <v>4.8859852960415125E-2</v>
-      </c>
-      <c r="D122" s="9">
-        <f t="shared" si="10"/>
-        <v>-4.8859852960415125E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <f t="shared" si="11"/>
-        <v>0.27682199999999973</v>
-      </c>
-      <c r="C123">
-        <f t="shared" si="8"/>
-        <v>4.8860177383804722E-2</v>
-      </c>
-      <c r="D123" s="9">
-        <f t="shared" si="10"/>
-        <v>-4.8860177383804722E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <f t="shared" si="11"/>
-        <v>0.27682299999999971</v>
-      </c>
-      <c r="C124">
-        <f t="shared" si="8"/>
-        <v>4.8860501807448699E-2</v>
-      </c>
-      <c r="D124" s="9">
-        <f t="shared" si="10"/>
-        <v>-4.8860501807448699E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <f t="shared" ref="A125" si="12">A124+0.000001</f>
-        <v>0.27682399999999968</v>
-      </c>
-      <c r="C125">
-        <f t="shared" si="8"/>
-        <v>4.8860826231347097E-2</v>
-      </c>
-      <c r="D125" s="9">
-        <f t="shared" ref="D125:D126" si="13">B125-C125</f>
-        <v>-4.8860826231347097E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <f>A125+0.0000001</f>
-        <v>0.27682409999999968</v>
-      </c>
-      <c r="C126">
-        <f t="shared" si="8"/>
-        <v>4.886085867375093E-2</v>
-      </c>
-      <c r="D126" s="9">
-        <f t="shared" si="13"/>
-        <v>-4.886085867375093E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <f t="shared" ref="A127:A133" si="14">A126+0.0000001</f>
-        <v>0.27682419999999969</v>
-      </c>
-      <c r="C127">
-        <f t="shared" si="8"/>
-        <v>4.8860891116157316E-2</v>
-      </c>
-      <c r="D127" s="9">
-        <f t="shared" ref="D127:D133" si="15">B127-C127</f>
-        <v>-4.8860891116157316E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <f t="shared" si="14"/>
-        <v>0.27682429999999969</v>
-      </c>
-      <c r="C128">
-        <f t="shared" si="8"/>
-        <v>4.8860923558566229E-2</v>
-      </c>
-      <c r="D128" s="9">
-        <f t="shared" si="15"/>
-        <v>-4.8860923558566229E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <f t="shared" si="14"/>
-        <v>0.27682439999999969</v>
-      </c>
-      <c r="C129">
-        <f t="shared" si="8"/>
-        <v>4.8860956000977694E-2</v>
-      </c>
-      <c r="D129" s="9">
-        <f t="shared" si="15"/>
-        <v>-4.8860956000977694E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <f>A129+0.0000001</f>
-        <v>0.2768244999999997</v>
-      </c>
-      <c r="C130">
-        <f t="shared" si="8"/>
-        <v>4.8860988443391713E-2</v>
-      </c>
-      <c r="D130" s="9">
-        <f t="shared" si="15"/>
-        <v>-4.8860988443391713E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <f t="shared" si="14"/>
-        <v>0.2768245999999997</v>
-      </c>
-      <c r="C131">
-        <f t="shared" si="8"/>
-        <v>4.8861020885808258E-2</v>
-      </c>
-      <c r="D131" s="9">
-        <f t="shared" si="15"/>
-        <v>-4.8861020885808258E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <f t="shared" si="14"/>
-        <v>0.2768246999999997</v>
-      </c>
-      <c r="C132">
-        <f t="shared" si="8"/>
-        <v>4.8861053328227357E-2</v>
-      </c>
-      <c r="D132" s="9">
-        <f t="shared" si="15"/>
-        <v>-4.8861053328227357E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <f t="shared" si="14"/>
-        <v>0.2768247999999997</v>
-      </c>
-      <c r="C133">
-        <f t="shared" si="8"/>
-        <v>4.8861085770648995E-2</v>
-      </c>
-      <c r="D133" s="9">
-        <f t="shared" si="15"/>
-        <v>-4.8861085770648995E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <f>A117+0.00001</f>
-        <v>0.27682599999999991</v>
-      </c>
-      <c r="C134">
-        <f t="shared" si="8"/>
-        <v>4.8861475079907173E-2</v>
-      </c>
-      <c r="D134" s="9">
-        <f t="shared" si="7"/>
-        <v>-4.8861475079907173E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <f>A114+0.00005</f>
-        <v>0.27686299999999997</v>
-      </c>
-      <c r="C135">
-        <f t="shared" si="8"/>
-        <v>4.8873478961816784E-2</v>
-      </c>
-      <c r="D135" s="9">
-        <f t="shared" si="1"/>
-        <v>-4.8873478961816784E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <f t="shared" ref="A136" si="16">A135+0.00005</f>
-        <v>0.27691299999999996</v>
-      </c>
-      <c r="C136">
-        <f t="shared" si="8"/>
-        <v>4.8889700977176785E-2</v>
-      </c>
-      <c r="D136" s="9">
-        <f t="shared" si="1"/>
-        <v>-4.8889700977176785E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <f>A109+0.001</f>
-        <v>0.27770000000000006</v>
-      </c>
-      <c r="C137">
-        <f t="shared" si="8"/>
-        <v>4.9145119288000021E-2</v>
-      </c>
-      <c r="D137" s="9">
-        <f t="shared" si="1"/>
-        <v>-4.9145119288000021E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <f>A137+0.001</f>
-        <v>0.27870000000000006</v>
-      </c>
-      <c r="C138">
-        <f t="shared" si="8"/>
-        <v>4.9469893368000013E-2</v>
-      </c>
-      <c r="D138" s="9">
-        <f t="shared" si="1"/>
-        <v>-4.9469893368000013E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <f t="shared" ref="A139:A143" si="17">A138+0.001</f>
-        <v>0.27970000000000006</v>
-      </c>
-      <c r="C139">
-        <f t="shared" si="8"/>
-        <v>4.979492184800003E-2</v>
-      </c>
-      <c r="D139" s="9">
-        <f t="shared" si="1"/>
-        <v>-4.979492184800003E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <f t="shared" si="17"/>
-        <v>0.28070000000000006</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="8"/>
-        <v>5.012020472800003E-2</v>
-      </c>
-      <c r="D140" s="9">
-        <f t="shared" si="1"/>
-        <v>-5.012020472800003E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <f t="shared" si="17"/>
-        <v>0.28170000000000006</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="8"/>
-        <v>5.0445742008000012E-2</v>
-      </c>
-      <c r="D141" s="9">
-        <f t="shared" si="1"/>
-        <v>-5.0445742008000012E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <f t="shared" si="17"/>
-        <v>0.28270000000000006</v>
-      </c>
-      <c r="C142">
-        <f t="shared" si="8"/>
-        <v>5.0771533688000019E-2</v>
-      </c>
-      <c r="D142" s="9">
-        <f t="shared" si="1"/>
-        <v>-5.0771533688000019E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <f t="shared" si="17"/>
-        <v>0.28370000000000006</v>
-      </c>
-      <c r="C143">
-        <f t="shared" si="8"/>
-        <v>5.1097579768000036E-2</v>
-      </c>
-      <c r="D143" s="9">
-        <f t="shared" si="1"/>
-        <v>-5.1097579768000036E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <f>A108+0.01</f>
-        <v>0.28660000000000008</v>
-      </c>
-      <c r="C144">
-        <f t="shared" si="8"/>
-        <v>5.2044552032000028E-2</v>
-      </c>
-      <c r="D144" s="9">
-        <f t="shared" si="1"/>
-        <v>-5.2044552032000028E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <f>A144+0.01</f>
-        <v>0.29660000000000009</v>
-      </c>
-      <c r="C145">
-        <f t="shared" si="8"/>
-        <v>5.5326382432000033E-2</v>
-      </c>
-      <c r="D145" s="9">
-        <f t="shared" si="1"/>
-        <v>-5.5326382432000033E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <f t="shared" si="2"/>
-        <v>0.30660000000000009</v>
-      </c>
-      <c r="C146">
-        <f t="shared" si="8"/>
-        <v>5.863365283200004E-2</v>
-      </c>
-      <c r="D146" s="9">
-        <f t="shared" si="1"/>
-        <v>-5.863365283200004E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <f t="shared" si="2"/>
-        <v>0.3166000000000001</v>
-      </c>
-      <c r="C147">
-        <f t="shared" si="8"/>
-        <v>6.1966363232000034E-2</v>
-      </c>
-      <c r="D147" s="9">
-        <f t="shared" si="1"/>
-        <v>-6.1966363232000034E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <f t="shared" si="2"/>
-        <v>0.32660000000000011</v>
-      </c>
-      <c r="C148">
-        <f t="shared" ref="C148:C154" si="18">(0.1272)*A148^2 + 0.254*A148 - 0.0312</f>
-        <v>6.5324513632000036E-2</v>
-      </c>
-      <c r="D148" s="9">
-        <f t="shared" si="1"/>
-        <v>-6.5324513632000036E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <f t="shared" si="2"/>
-        <v>0.33660000000000012</v>
-      </c>
-      <c r="C149">
-        <f t="shared" si="18"/>
-        <v>6.8708104032000034E-2</v>
-      </c>
-      <c r="D149" s="9">
-        <f t="shared" si="1"/>
-        <v>-6.8708104032000034E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <f t="shared" si="2"/>
-        <v>0.34660000000000013</v>
-      </c>
-      <c r="C150">
-        <f t="shared" si="18"/>
-        <v>7.2117134432000046E-2</v>
-      </c>
-      <c r="D150" s="9">
-        <f t="shared" si="1"/>
-        <v>-7.2117134432000046E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <f t="shared" si="2"/>
-        <v>0.35660000000000014</v>
-      </c>
-      <c r="C151">
-        <f t="shared" si="18"/>
-        <v>7.5551604832000047E-2</v>
-      </c>
-      <c r="D151" s="9">
-        <f t="shared" si="1"/>
-        <v>-7.5551604832000047E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <f t="shared" si="2"/>
-        <v>0.36660000000000015</v>
-      </c>
-      <c r="C152">
-        <f t="shared" si="18"/>
-        <v>7.9011515232000062E-2</v>
-      </c>
-      <c r="D152" s="9">
-        <f t="shared" si="1"/>
-        <v>-7.9011515232000062E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <f t="shared" si="2"/>
-        <v>0.37660000000000016</v>
-      </c>
-      <c r="C153">
-        <f t="shared" si="18"/>
-        <v>8.2496865632000066E-2</v>
-      </c>
-      <c r="D153" s="9">
-        <f t="shared" si="1"/>
-        <v>-8.2496865632000066E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <f t="shared" si="2"/>
-        <v>0.38660000000000017</v>
-      </c>
-      <c r="C154">
-        <f t="shared" si="18"/>
-        <v>8.6007656032000057E-2</v>
-      </c>
-      <c r="D154" s="9">
-        <f t="shared" si="1"/>
-        <v>-8.6007656032000057E-2</v>
-      </c>
+        <v>3.3975598799999993E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D86" s="9"/>
+      <c r="J86" s="11">
+        <v>0.12613160000000001</v>
+      </c>
+      <c r="K86">
+        <v>1.5162255679999997E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D88" s="9"/>
+      <c r="J88" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K88">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D89" s="9"/>
+      <c r="J89" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K89">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D90" s="9"/>
+      <c r="J90" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K90">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D91" s="9"/>
+      <c r="J91" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K91">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D92" s="9"/>
+      <c r="J92" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K92">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D93" s="9"/>
+      <c r="J93" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K93">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D94" s="9"/>
+      <c r="J94" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K94">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D95" s="9"/>
+      <c r="J95" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K95">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D96" s="9"/>
+      <c r="J96" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K96">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D97" s="9"/>
+      <c r="J97" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K97">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D104" s="9"/>
+    </row>
+    <row r="105" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="4:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D121" s="9"/>
+    </row>
+    <row r="122" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D122" s="9"/>
+    </row>
+    <row r="123" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D123" s="9"/>
+    </row>
+    <row r="124" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D124" s="9"/>
+    </row>
+    <row r="125" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D125" s="9"/>
+    </row>
+    <row r="126" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D126" s="9"/>
+    </row>
+    <row r="127" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D127" s="9"/>
+    </row>
+    <row r="128" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D128" s="9"/>
+    </row>
+    <row r="129" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D129" s="9"/>
+    </row>
+    <row r="130" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D130" s="9"/>
+    </row>
+    <row r="131" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D132" s="9"/>
+    </row>
+    <row r="133" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D133" s="9"/>
+    </row>
+    <row r="134" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D134" s="9"/>
+    </row>
+    <row r="135" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D135" s="9"/>
+    </row>
+    <row r="136" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D136" s="9"/>
+    </row>
+    <row r="137" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D137" s="9"/>
+    </row>
+    <row r="138" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D139" s="9"/>
+    </row>
+    <row r="140" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D141" s="9"/>
+    </row>
+    <row r="142" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D142" s="9"/>
+    </row>
+    <row r="143" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D143" s="9"/>
+    </row>
+    <row r="144" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D144" s="9"/>
+    </row>
+    <row r="145" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D147" s="9"/>
+    </row>
+    <row r="148" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D150" s="9"/>
+    </row>
+    <row r="151" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D151" s="9"/>
+    </row>
+    <row r="152" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D153" s="9"/>
+    </row>
+    <row r="154" spans="4:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D154" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E9">
-    <sortCondition descending="1" ref="A4:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E15">
+    <sortCondition descending="1" ref="A4:A15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
